--- a/data_excel/608.xlsx
+++ b/data_excel/608.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>湖面</t>
   </si>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +495,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,8 +524,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
